--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_тр_нефть/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_тр_нефть/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1783,6 +1783,17 @@
       </c>
       <c r="D126">
         <v>27.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>29.9</v>
+      </c>
+      <c r="D127">
+        <v>30.3</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1824,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.72800000000003</v>
+        <v>33.69761904761907</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1863,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.0864</v>
+        <v>32.07222222222223</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.7061130464053713</v>
+        <v>0.7059978561993352</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1989,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7061130464053713</v>
+        <v>0.7059978561993352</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2018,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.291999439202174</v>
+        <v>5.281809754782378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2031,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.589169314721281</v>
+        <v>6.56468904230979</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_тр_нефть/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_тр_нефть/results.xlsx
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.69761904761907</v>
+        <v>33.69761904761904</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.07222222222223</v>
+        <v>32.07222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.7059978561993352</v>
+        <v>0.7059978561993353</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7059978561993352</v>
+        <v>0.7059978561993353</v>
       </c>
       <c r="D4">
         <v>1</v>
